--- a/results.xlsx
+++ b/results.xlsx
@@ -4434,7 +4434,7 @@
         <v>284</v>
       </c>
       <c r="C286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D286" t="n">
         <v>586.2496999609364</v>
@@ -4448,7 +4448,7 @@
         <v>285</v>
       </c>
       <c r="C287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D287" t="n">
         <v>586.2536866126258</v>
@@ -4462,7 +4462,7 @@
         <v>286</v>
       </c>
       <c r="C288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D288" t="n">
         <v>586.613481927599</v>
@@ -4476,7 +4476,7 @@
         <v>287</v>
       </c>
       <c r="C289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D289" t="n">
         <v>586.6436032959192</v>
